--- a/data/income_statement/2digits/size/33_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/33_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>33-Repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>33-Repair and installation of machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,890 +841,1005 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>971971.15584</v>
+        <v>984388.1396700001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1094829.75114</v>
+        <v>1128974.32137</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1491737.98115</v>
+        <v>1539297.92469</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1705674.37149</v>
+        <v>1771366.89303</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2606053.13401</v>
+        <v>2618987.69664</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3281226.31527</v>
+        <v>3365686.45098</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3843927.30024</v>
+        <v>3982697.75165</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4315972.10869</v>
+        <v>4407346.15176</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5392352.16067</v>
+        <v>5461186.97477</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7654508.1711</v>
+        <v>7786643.65985</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8469035.10502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8858420.28169</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11303232.778</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>860385.6139</v>
+        <v>867161.6750500001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>986175.52079</v>
+        <v>1005681.16387</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1326368.43389</v>
+        <v>1347962.76137</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1547314.44698</v>
+        <v>1594121.70434</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2318105.43601</v>
+        <v>2315536.54396</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2900773.72224</v>
+        <v>2955596.13046</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3481972.08349</v>
+        <v>3570710.66841</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3919473.95275</v>
+        <v>3974830.767109999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4785025.46634</v>
+        <v>4816062.337139999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6650440.22022</v>
+        <v>6727352.76085</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7250307.45583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7525320.36831</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9776343.415999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>88859.89274</v>
+        <v>93922.01662000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>86095.01268000001</v>
+        <v>100604.5257</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>135772.79592</v>
+        <v>158656.13693</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>129131.79775</v>
+        <v>144769.37254</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>245760.82584</v>
+        <v>251787.30486</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>334654.00946</v>
+        <v>357596.92891</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>310797.52492</v>
+        <v>349837.30372</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>330644.32271</v>
+        <v>368926.2705</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>518392.24258</v>
+        <v>556946.53817</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>891751.5396199999</v>
+        <v>950845.93135</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1087464.69219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1189934.52046</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1373325.214</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>22725.6492</v>
+        <v>23304.448</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>22559.21767</v>
+        <v>22688.6318</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>29596.75134</v>
+        <v>32679.02639</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>29228.12676</v>
+        <v>32475.81615</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>42186.87216</v>
+        <v>51663.84782</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>45798.58357</v>
+        <v>52493.39161</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>51157.69183</v>
+        <v>62149.77952</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>65853.83323</v>
+        <v>63589.11415000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>88934.45174999999</v>
+        <v>88178.09946</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>112316.41126</v>
+        <v>108444.96765</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>131262.957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>143165.39292</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>153564.148</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8858.378040000001</v>
+        <v>8738.93166</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>11927.35818</v>
+        <v>11232.27863</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>14063.25946</v>
+        <v>14366.51105</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>14435.72995</v>
+        <v>14546.67857</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>19429.17047</v>
+        <v>19051.96889</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>28307.3066</v>
+        <v>26977.59688</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>29314.05736</v>
+        <v>30262.51345</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>35797.41688</v>
+        <v>37961.16232</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>54251.59696</v>
+        <v>57881.27529999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>88437.68788</v>
+        <v>100219.54601</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>82168.47530000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>92120.28907</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>213529.037</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7212.05969</v>
+        <v>7087.26883</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9517.176160000001</v>
+        <v>8853.401739999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>10601.32524</v>
+        <v>10898.81336</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11959.75702</v>
+        <v>11744.1847</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>13488.73293</v>
+        <v>13685.88814</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>22175.66619</v>
+        <v>20819.74206</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22293.50259</v>
+        <v>23148.38983</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>23967.14378</v>
+        <v>25276.41174</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>41037.08388000001</v>
+        <v>42276.19409999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>69040.3469</v>
+        <v>81788.31215000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>67954.75637999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>76973.38775999998</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>177346.755</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1322.24866</v>
+        <v>1304.22759</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2202.77995</v>
+        <v>2178.1143</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3150.5309</v>
+        <v>3124.30863</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1985.74853</v>
+        <v>2316.06092</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3996.01845</v>
+        <v>3932.52347</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>4721.02068</v>
+        <v>4705.529320000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4277.46036</v>
+        <v>4377.66799</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8422.21543</v>
+        <v>9266.806349999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7367.91085</v>
+        <v>9614.762839999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>12333.42269</v>
+        <v>11108.65029</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9344.424879999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11334.9017</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>27661.124</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>324.06969</v>
+        <v>347.43524</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>207.40207</v>
+        <v>200.76259</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>311.40332</v>
+        <v>343.38906</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>490.2243999999999</v>
+        <v>486.4329499999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1944.41909</v>
+        <v>1433.55728</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1410.61973</v>
+        <v>1452.3255</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2743.09441</v>
+        <v>2736.45563</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3408.05767</v>
+        <v>3417.94423</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5846.60223</v>
+        <v>5990.318359999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7063.91829</v>
+        <v>7322.583570000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4869.29404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3811.99961</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8521.157999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>963112.7777999999</v>
+        <v>975649.2080099999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1082902.39296</v>
+        <v>1117742.04274</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1477674.72169</v>
+        <v>1524931.41364</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1691238.64154</v>
+        <v>1756820.21446</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2586623.96354</v>
+        <v>2599935.72775</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3252919.00867</v>
+        <v>3338708.8541</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3814613.24288</v>
+        <v>3952435.2382</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4280174.691810001</v>
+        <v>4369384.989440001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5338100.56371</v>
+        <v>5403305.69947</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7566070.48322</v>
+        <v>7686424.11384</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8386866.629720001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8766299.992619999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11089703.741</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>735153.22256</v>
+        <v>750869.58467</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>823944.8273000001</v>
+        <v>850182.9028100001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1136025.97895</v>
+        <v>1184436.66761</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1322869.5469</v>
+        <v>1384914.62033</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2038703.0858</v>
+        <v>2043331.89925</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2540650.84293</v>
+        <v>2619180.39139</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2974568.50945</v>
+        <v>3109245.07478</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3374066.09726</v>
+        <v>3458353.76252</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4246464.42971</v>
+        <v>4315820.56367</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6061707.548140001</v>
+        <v>6164364.43478</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6692101.722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7027502.495450001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8996638.173</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>145276.49965</v>
+        <v>139853.8911</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>159071.98613</v>
+        <v>158654.38255</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>230193.12387</v>
+        <v>231493.41061</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>272157.92317</v>
+        <v>272504.08226</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>354314.7095</v>
+        <v>352612.24714</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>445402.31857</v>
+        <v>446754.89964</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>546562.69796</v>
+        <v>555174.88553</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>565621.7147799999</v>
+        <v>567681.51017</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>754293.94005</v>
+        <v>760644.0921400001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1202096.66007</v>
+        <v>1187904.68284</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1360831.55409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1388120.60208</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1898983.6</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>266025.74924</v>
+        <v>259971.64615</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>323083.91011</v>
+        <v>323973.52612</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>481461.77399</v>
+        <v>489080.91478</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>559760.02945</v>
+        <v>574982.49304</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>966790.7825900001</v>
+        <v>945737.36324</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1239757.39912</v>
+        <v>1267443.97987</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1450845.38463</v>
+        <v>1489437.18978</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1662767.74557</v>
+        <v>1722785.5761</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2069941.49726</v>
+        <v>2092388.025</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2884270.30174</v>
+        <v>2911031.03449</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2985309.95873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3155508.54682</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4371625.751</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>321475.24456</v>
+        <v>345117.69443</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>340437.00884</v>
+        <v>365570.7622999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>421058.1775700001</v>
+        <v>459936.9655</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>485842.15146</v>
+        <v>532470.4314</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>712780.7586000001</v>
+        <v>739689.0706</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>837967.48046</v>
+        <v>887122.21204</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>966210.04403</v>
+        <v>1054253.8209</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1133451.49311</v>
+        <v>1156511.87082</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1401023.24048</v>
+        <v>1441456.09178</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1953608.12958</v>
+        <v>2045389.34791</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2306242.65261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2449446.98613</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2680307.083</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2375.72911</v>
+        <v>5926.35299</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1351.92222</v>
+        <v>1984.23184</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3312.90352</v>
+        <v>3925.37672</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5109.44282</v>
+        <v>4957.61363</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4816.835109999999</v>
+        <v>5293.21827</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>17523.64478</v>
+        <v>17859.29984</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10950.38283</v>
+        <v>10379.17857</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12225.1438</v>
+        <v>11374.80543</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>21205.75192</v>
+        <v>21332.35475</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>21732.45675</v>
+        <v>20039.36954</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>39717.55657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>34426.36042</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>45721.739</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>227959.55524</v>
+        <v>224779.62334</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>258957.56566</v>
+        <v>267559.13993</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>341648.74274</v>
+        <v>340494.74603</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>368369.09464</v>
+        <v>371905.59413</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>547920.87774</v>
+        <v>556603.8284999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>712268.16574</v>
+        <v>719528.46271</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>840044.73343</v>
+        <v>843190.16342</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>906108.5945499999</v>
+        <v>911031.2269199999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1091636.134</v>
+        <v>1087485.1358</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1504362.93508</v>
+        <v>1522059.67906</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1694764.90772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1738797.49717</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2093065.568</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>163506.42412</v>
+        <v>175382.55889</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>185552.60509</v>
+        <v>190550.04038</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>225633.02626</v>
+        <v>236588.40232</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>255129.9083</v>
+        <v>263002.41944</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>394535.1173400001</v>
+        <v>393990.20785</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>501182.1139000001</v>
+        <v>508476.52838</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>568958.85051</v>
+        <v>571918.6040599999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>637249.3072200001</v>
+        <v>632738.60187</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>747394.8255599999</v>
+        <v>728576.2502100001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>943668.20474</v>
+        <v>927768.1210299999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1124158.52821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1141174.94797</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1251359.522</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>746.957</v>
+        <v>741.3450600000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>809.7111599999999</v>
+        <v>1231.25457</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1123.21257</v>
+        <v>1166.04837</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>868.0802100000001</v>
+        <v>910.5684100000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1309.49032</v>
+        <v>1296.65155</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>9522.99468</v>
+        <v>9470.523429999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8704.00707</v>
+        <v>8636.790440000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5454.254730000001</v>
+        <v>5248.09468</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3292.13641</v>
+        <v>3310.0815</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8317.07517</v>
+        <v>8390.707839999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>8453.339019999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9979.366769999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5276.545</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>26298.47352</v>
+        <v>24398.32408</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>33433.47962</v>
+        <v>31381.6007</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>38089.08994</v>
+        <v>36918.03899</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>46337.06731999999</v>
+        <v>45644.09836</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>85217.6608</v>
+        <v>83905.79212</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>110198.03282</v>
+        <v>108802.18923</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>114092.20553</v>
+        <v>113774.93891</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>112187.97854</v>
+        <v>116239.94458</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>131743.11248</v>
+        <v>128755.78043</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>171321.91825</v>
+        <v>162160.7152</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>207383.10506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>209934.01479</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>220853.586</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>136460.9936</v>
+        <v>150242.88975</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>151309.41431</v>
+        <v>157937.18511</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>186420.72375</v>
+        <v>198504.31496</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>207924.76077</v>
+        <v>216447.75267</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>308007.9662199999</v>
+        <v>308787.76418</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>381461.0864</v>
+        <v>390203.81572</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>446162.63791</v>
+        <v>449506.8747100001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>519607.07395</v>
+        <v>511250.56261</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>612359.57667</v>
+        <v>596510.38828</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>764029.2113199999</v>
+        <v>757216.69799</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>908322.0841299999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>921261.56641</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1025229.391</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>64453.13112</v>
+        <v>49397.06445000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>73404.96057000001</v>
+        <v>77009.09955</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>116015.71648</v>
+        <v>103906.34371</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>113239.18634</v>
+        <v>108903.17469</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>153385.7604</v>
+        <v>162613.62065</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>211086.05184</v>
+        <v>211051.93433</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>271085.88292</v>
+        <v>271271.55936</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>268859.28733</v>
+        <v>278292.62505</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>344241.30844</v>
+        <v>358908.88559</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>560694.73034</v>
+        <v>594291.55803</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>570606.37951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>597622.5492</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>841706.046</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19107.32548</v>
+        <v>67945.40932999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>22495.76727</v>
+        <v>65297.41725</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>28993.96117</v>
+        <v>213793.36395</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>24428.62052</v>
+        <v>118159.96067</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>69217.52628999999</v>
+        <v>121358.16617</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>59525.23702</v>
+        <v>137472.77703</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>86886.98363</v>
+        <v>145825.78428</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>89926.02944</v>
+        <v>144955.91981</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>113191.96702</v>
+        <v>147540.42484</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>546018.1113299999</v>
+        <v>682163.0752899999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>279854.28687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>465667.34009</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>578479.35</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>114.66808</v>
+        <v>6561.4792</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6.524109999999999</v>
+        <v>1167.21665</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>54.37918</v>
+        <v>271.08928</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>583.9133499999999</v>
+        <v>1365.25561</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>9731.99591</v>
+        <v>16485.16887</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>175.54009</v>
+        <v>5302.13075</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>411.0263399999999</v>
+        <v>3649.17038</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>159.27414</v>
+        <v>4430.650769999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>79.97678999999999</v>
+        <v>27.63679</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3508.82657</v>
+        <v>1093.93527</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3056.25117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>354.73838</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>283.474</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>4161.36493</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0.00224</v>
+        <v>5.74357</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>40.01066</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>36.6058</v>
+        <v>3581.70092</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1838,91 +1854,106 @@
         <v>11.76105</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>163.49332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5129.433099999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>525.8339999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2030.09618</v>
+        <v>9431.38877</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2548.09204</v>
+        <v>5395.87822</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2658.03822</v>
+        <v>3970.47949</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3471.37419</v>
+        <v>4304.80447</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4643.42542</v>
+        <v>7393.46583</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5452.0159</v>
+        <v>9544.25952</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7457.83527</v>
+        <v>8967.885850000002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10279.63119</v>
+        <v>9653.6543</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13163.69593</v>
+        <v>13423.54284</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>24616.96985</v>
+        <v>26260.65167</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>32807.55975</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>31477.52888</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>20765.73</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2698.65559</v>
+        <v>2500.75893</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3792.04055</v>
+        <v>187.20025</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3251.67389</v>
+        <v>821.40795</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>4502.231059999999</v>
+        <v>4530.04414</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7366.49255</v>
+        <v>7352.360549999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6011.06647</v>
+        <v>5860.57758</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3965.89315</v>
+        <v>3826.07106</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4261.30379</v>
+        <v>7014.324799999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>4860.064219999999</v>
+        <v>4641.81888</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6864.47914</v>
+        <v>6863.76817</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>6108.51776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>9966.393880000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2468.457</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>90.0352</v>
@@ -1931,124 +1962,139 @@
         <v>104.86432</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>510.00099</v>
+        <v>470.25586</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>163.65388</v>
+        <v>1869.82989</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1887.96215</v>
+        <v>1888.75937</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1455.16756</v>
+        <v>1127.95649</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>734.90799</v>
+        <v>3898.76027</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>824.7684099999999</v>
+        <v>1162.30022</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3421.01305</v>
+        <v>1617.9181</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2446.08403</v>
+        <v>2700.34665</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3284.75995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2890.51948</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6254.947</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>106.92505</v>
+        <v>86.42703</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>67.53955999999999</v>
+        <v>90.74366999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>502.41845</v>
+        <v>537.6043100000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>224.0693</v>
+        <v>3008.81068</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>220.74305</v>
+        <v>247.61469</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>442.64219</v>
+        <v>581.27139</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>575.22248</v>
+        <v>589.7414699999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>671.96836</v>
+        <v>638.7419599999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>570.3416799999999</v>
+        <v>729.17196</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1102.41024</v>
+        <v>4250.648639999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4408.799690000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4323.76399</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4088.792</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11271.74235</v>
+        <v>39840.35261</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11945.5521</v>
+        <v>40862.81044</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>19546.67719</v>
+        <v>192228.41448</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9507.843500000001</v>
+        <v>81933.85176000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>36090.11566</v>
+        <v>60449.21008</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>30184.331</v>
+        <v>75789.22740999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>64697.0046</v>
+        <v>105015.0537</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>62798.51074</v>
+        <v>89121.52305000002</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>74154.54108</v>
+        <v>103502.61304</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>486415.94404</v>
+        <v>610146.12921</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>198468.91327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>307700.40099</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>500908.715</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>167.65769</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>29.26587</v>
+        <v>31.38162</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>317.57999</v>
+        <v>36.23522</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>52.31211</v>
@@ -2057,7 +2103,7 @@
         <v>19.20708</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>203.18033</v>
+        <v>55.28907</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>17.47245</v>
@@ -2066,19 +2112,24 @@
         <v>21.17539</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>76.75995999999999</v>
+        <v>63.50496</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>11.14132</v>
+        <v>14.55346</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0.0004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>9.360379999999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1427.43</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>96.49649000000001</v>
@@ -2090,13 +2141,13 @@
         <v>46.17126</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>7.65079</v>
+        <v>5.14044</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>70.23869999999999</v>
+        <v>62.99034</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>5567.80944</v>
+        <v>87.16583</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>23.54027</v>
@@ -2105,7 +2156,7 @@
         <v>31.62905</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>73.21541999999999</v>
+        <v>72.50894</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>78.13761</v>
@@ -2113,245 +2164,280 @@
       <c r="M34" s="48" t="n">
         <v>96.16453</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>21.703</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2531.04885</v>
+        <v>9170.813410000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3974.09863</v>
+        <v>13268.16706</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2107.022</v>
+        <v>15411.7061</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5915.570100000001</v>
+        <v>21084.168</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>9147.33511</v>
+        <v>27419.3787</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9996.87824</v>
+        <v>35543.19807</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9004.08108</v>
+        <v>19838.08883</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10856.03102</v>
+        <v>32860.18292</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>16792.35889</v>
+        <v>23461.70933</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>20962.35748</v>
+        <v>30743.14356</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>31459.82703</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>103719.03648</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>41734.268</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>16351.55599</v>
+        <v>48662.17485</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>14325.28852</v>
+        <v>45036.89098</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>21219.12159</v>
+        <v>186131.19065</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>17064.4573</v>
+        <v>91149.01170999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>41258.75415</v>
+        <v>82749.50753999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>41974.24517</v>
+        <v>93841.18818000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>75170.87183</v>
+        <v>135844.07575</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>105887.57196</v>
+        <v>174178.27162</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>84671.14</v>
+        <v>109538.06776</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>547943.36641</v>
+        <v>639692.58423</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>230527.00198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>329919.42698</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>509969.25</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>268.70045</v>
+        <v>437.82867</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>601.58731</v>
+        <v>784.82025</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1377.10815</v>
+        <v>2051.22328</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1209.20342</v>
+        <v>1429.72572</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1304.16929</v>
+        <v>2946.97042</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1893.51749</v>
+        <v>1915.0407</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1557.76172</v>
+        <v>1450.39364</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1865.36164</v>
+        <v>1584.33903</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1570.6179</v>
+        <v>1605.13127</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3695.76035</v>
+        <v>3673.23096</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5968.32206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5998.97369</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7355.05</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3323.02233</v>
+        <v>3365.44956</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1080.70255</v>
+        <v>907.88162</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1765.78791</v>
+        <v>2164.02572</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4373.800969999999</v>
+        <v>7131.75687</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3124.8669</v>
+        <v>3521.39017</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3026.53533</v>
+        <v>3725.48648</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5223.51419</v>
+        <v>21744.10647</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>45019.36823000001</v>
+        <v>44382.42519</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5990.68967</v>
+        <v>5006.089400000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21447.99573</v>
+        <v>23311.94717</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>18468.87944</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>19238.24365</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>38385.196</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>94.52321000000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>6.809909999999999</v>
+        <v>0.36468</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>310.44534</v>
+        <v>316.46617</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3.71508</v>
+        <v>72.04252000000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>36.90711</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1399.5491</v>
+        <v>1462.08025</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>267.9953399999999</v>
+        <v>287.06986</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>97.25549000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>142.1374</v>
+        <v>843.98794</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>282.02767</v>
+        <v>2043.91683</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>845.3654500000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>845.09266</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1713.864</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11157.8257</v>
+        <v>39711.83203</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11421.25593</v>
+        <v>29594.96446</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>15787.94137</v>
+        <v>176152.71314</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10170.21078</v>
+        <v>79357.61221000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>33798.4032</v>
+        <v>72728.671</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>31517.86257</v>
+        <v>82121.48987</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>63470.74323</v>
+        <v>109346.82692</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>55575.76571</v>
+        <v>110780.44945</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>72229.04418000001</v>
+        <v>96578.67206999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>483211.33809</v>
+        <v>599232.9753500001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>195341.28542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>288004.30355</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>451297.929</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>73.61774000000001</v>
@@ -2369,7 +2455,7 @@
         <v>48.69027000000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>134.07257</v>
+        <v>19.99944</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>25.55139</v>
@@ -2381,16 +2467,21 @@
         <v>43.58446</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>6.67725</v>
+        <v>29.86297</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>5.38454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>898.79889</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>110.946</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>32.77583</v>
@@ -2402,10 +2493,10 @@
         <v>1e-05</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>76.3655</v>
+        <v>67.69136999999999</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>13.13611</v>
+        <v>283.80686</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>2e-05</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>4e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1401.09073</v>
+        <v>4946.147809999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1128.46346</v>
+        <v>13662.39061</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1976.39638</v>
+        <v>5445.3199</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1230.44144</v>
+        <v>3089.46291</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2932.58127</v>
+        <v>3183.07171</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4002.70809</v>
+        <v>4597.09142</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4625.30593</v>
+        <v>2990.12744</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3328.14578</v>
+        <v>17332.12735</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4694.956970000001</v>
+        <v>5460.4932</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>39272.66719</v>
+        <v>11373.75082</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9897.76503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>14934.0145</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11106.265</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>12284.48226</v>
+        <v>31485.36722</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>10618.40312</v>
+        <v>25877.66643</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>14228.54203</v>
+        <v>45901.81512</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>18611.29452</v>
+        <v>29355.48556</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>28493.18866</v>
+        <v>35270.34674</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>34606.0206</v>
+        <v>43932.91828</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>42788.97990999999</v>
+        <v>53982.01732</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>51310.40129</v>
+        <v>64484.54343000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>63584.67490999999</v>
+        <v>113729.44934</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>111567.5392</v>
+        <v>117176.5921</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>117133.86795</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>135325.54139</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>133102.741</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11520.11276</v>
+        <v>28745.58419</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9851.982969999999</v>
+        <v>14005.35121</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>13681.50083</v>
+        <v>19628.88583</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>17735.00746</v>
+        <v>22900.52612</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>27646.77577</v>
+        <v>31991.60318</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>33879.09869</v>
+        <v>39478.33054</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>41560.61108</v>
+        <v>50597.16357</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>49577.93998</v>
+        <v>58230.03054</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>61660.78957000001</v>
+        <v>73068.26697999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>104925.53248</v>
+        <v>111324.55886</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>108962.00402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>119253.24315</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>120277.806</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>764.3695</v>
+        <v>2739.78303</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>766.4201499999999</v>
+        <v>11872.31522</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>547.0412000000001</v>
+        <v>26272.92929</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>876.2870600000001</v>
+        <v>6454.959440000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>846.4128900000001</v>
+        <v>3278.74356</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>726.92191</v>
+        <v>4454.587739999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1228.36883</v>
+        <v>3384.85375</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1732.46131</v>
+        <v>6254.51289</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1923.88534</v>
+        <v>40661.18236</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6642.00672</v>
+        <v>5852.033240000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8171.86393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16072.29824</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>12824.935</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>54924.41835</v>
+        <v>37194.93171</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>70957.0362</v>
+        <v>71391.95939</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>109562.01403</v>
+        <v>85666.70189</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>101992.05504</v>
+        <v>106558.63809</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>152851.34388</v>
+        <v>165951.93254</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>194031.02309</v>
+        <v>210750.6049</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>240013.01481</v>
+        <v>227271.25057</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>201587.34352</v>
+        <v>184585.72981</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>309177.46055</v>
+        <v>283181.79333</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>447201.93606</v>
+        <v>519585.45699</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>502799.79645</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>598044.9209199999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>777113.405</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7605.289600000001</v>
+        <v>46816.5658</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>11343.54961</v>
+        <v>10442.80043</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9267.748079999999</v>
+        <v>11753.88574</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>9293.649150000001</v>
+        <v>10551.72162</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>15666.8379</v>
+        <v>19851.22641</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>18727.48867</v>
+        <v>22240.52673</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>26841.62757</v>
+        <v>58339.30755999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>36896.59934</v>
+        <v>50875.26015</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>41239.55005</v>
+        <v>40217.4188</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>65176.77885</v>
+        <v>75145.74397</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>81766.49396000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>83633.69356</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>117805.483</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>50.72901</v>
+        <v>199.32322</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>352.61792</v>
+        <v>449.01373</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1228.459</v>
+        <v>1296.69628</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>90.45492999999999</v>
+        <v>324.62212</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>94.91412000000001</v>
+        <v>99.88626000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>822.0881999999999</v>
+        <v>874.68215</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>341.31389</v>
+        <v>312.7215</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1637.86787</v>
+        <v>1441.25122</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>810.85673</v>
+        <v>1190.57534</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8832.35025</v>
+        <v>23692.06034</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1327.51804</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1428.34709</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5472.866</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7554.560590000001</v>
+        <v>46617.24258</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10990.93169</v>
+        <v>9993.786699999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8039.28908</v>
+        <v>10457.18946</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9203.194220000001</v>
+        <v>10227.0995</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>15571.92378</v>
+        <v>19751.34015</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17905.40047</v>
+        <v>21365.84458</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>26500.31368</v>
+        <v>58026.58606</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>35258.73147</v>
+        <v>49434.00893</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>40428.69332</v>
+        <v>39026.84346</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>56344.4286</v>
+        <v>51453.68362999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>80438.97592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>82205.34647</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>112332.617</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6971.91894</v>
+        <v>8939.331179999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7387.56304</v>
+        <v>36609.58722000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>91251.66464999999</v>
+        <v>106882.10781</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12209.68374</v>
+        <v>12708.56185</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13864.95021</v>
+        <v>20492.21784</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>68999.34736</v>
+        <v>81021.24150999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20976.07887</v>
+        <v>33958.60159</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>99417.42967</v>
+        <v>94271.59770999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>31798.86181</v>
+        <v>56361.7127</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>150437.59523</v>
+        <v>142137.07806</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>55962.77564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>74617.93412000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>91166.421</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>732.86008</v>
+        <v>2106.63424</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>517.2869599999999</v>
+        <v>239.02761</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>315.04152</v>
+        <v>349.5277</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>572.26148</v>
+        <v>1420.98545</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>462.36234</v>
+        <v>1189.73704</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>213.5557</v>
+        <v>818.7404</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>681.8661099999999</v>
+        <v>2055.85357</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>516.56927</v>
+        <v>2539.34345</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>641.7382100000001</v>
+        <v>2455.99675</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1183.86407</v>
+        <v>2223.8474</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1307.1046</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4013.37871</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12623.561</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>538.1549</v>
+        <v>1390.80647</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>574.70956</v>
+        <v>679.63977</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>61.89607</v>
+        <v>656.3914100000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>599.40229</v>
+        <v>1050.94032</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>804.96473</v>
+        <v>1358.79155</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>371.07588</v>
+        <v>817.6094199999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1243.38658</v>
+        <v>2716.68506</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3211.285809999999</v>
+        <v>3043.85376</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1050.98461</v>
+        <v>1527.73662</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2508.00827</v>
+        <v>3847.593</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6842.880630000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3046.17485</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2673.122</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5700.90396</v>
+        <v>5441.890469999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6295.566519999999</v>
+        <v>35690.91984</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>90874.72706</v>
+        <v>105876.1887</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11038.01997</v>
+        <v>10236.63608</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12597.62314</v>
+        <v>17943.68925</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>68414.71578</v>
+        <v>79384.89169</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19050.82618</v>
+        <v>29186.06296</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>95689.57459</v>
+        <v>88688.4005</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>30106.13899</v>
+        <v>52377.97932999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>146745.72289</v>
+        <v>136065.63766</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>47812.79041</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>67558.38056000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>75869.738</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>55557.78901</v>
+        <v>75072.16632999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>74913.02277000001</v>
+        <v>45225.17259999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>27578.09746</v>
+        <v>-9461.52018</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>99076.02045</v>
+        <v>104401.79786</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>154653.23157</v>
+        <v>165310.94111</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>143759.1644</v>
+        <v>151969.89012</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>245878.56351</v>
+        <v>251651.95654</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>139066.51319</v>
+        <v>141189.39225</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>318618.14879</v>
+        <v>267037.49943</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>361941.1196799999</v>
+        <v>452594.1229</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>528603.51477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>607060.68036</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>803752.4669999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12903.46718</v>
+        <v>13015.67472</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>14973.60914</v>
+        <v>15950.35347</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>19391.23927</v>
+        <v>20924.25348</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>21620.64776</v>
+        <v>24711.00258</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>30817.45467</v>
+        <v>34303.11735</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>38238.30357</v>
+        <v>42372.08089</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>51381.20482</v>
+        <v>52506.35847</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>51971.6613</v>
+        <v>54398.77323999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>63027.51848000001</v>
+        <v>62998.74672</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>107365.74299</v>
+        <v>114394.29885</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>114332.69221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>130195.6579</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>177877.135</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>42654.32183</v>
+        <v>62056.49161</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>59939.41363</v>
+        <v>29274.81913</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>8186.858190000001</v>
+        <v>-30385.77366</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>77455.37269</v>
+        <v>79690.79528000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>123835.7769</v>
+        <v>131007.82376</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>105520.86083</v>
+        <v>109597.80923</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>194497.35869</v>
+        <v>199145.59807</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>87094.85189000001</v>
+        <v>86790.61901000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>255590.63031</v>
+        <v>204038.75271</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>254575.37669</v>
+        <v>338199.8240499999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>414270.82256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>476865.0224600001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>625875.3320000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>904</v>
+        <v>795</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>841</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>936</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>962</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>1047</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>1111</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>1401</v>
+        <v>1177</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1524</v>
+        <v>1286</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1754</v>
+        <v>1476</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1938</v>
+        <v>1579</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2209</v>
+        <v>1763</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1503</v>
+        <v>1346</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1428</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>